--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
     <sheet name="单页网址" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
   <si>
     <t>网站名</t>
   </si>
@@ -593,10 +592,19 @@
     <t>https://www.ipip.net/</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luchanrong@gmail.com </t>
+    <t>Google账户</t>
+  </si>
+  <si>
+    <t>luchanrong@gmail.com</t>
+  </si>
+  <si>
+    <t>lu134375</t>
+  </si>
+  <si>
+    <t>Google meet视频会议</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/odr-dnwz-ywu</t>
   </si>
   <si>
     <t>postman</t>
@@ -606,6 +614,15 @@
   </si>
   <si>
     <t>rafael66</t>
+  </si>
+  <si>
+    <t>阿里云</t>
+  </si>
+  <si>
+    <t>https://ecs-buy.aliyun.com</t>
+  </si>
+  <si>
+    <t>淘宝账号登录</t>
   </si>
   <si>
     <t>标题</t>
@@ -710,19 +727,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,16 +770,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,8 +816,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +847,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -814,75 +871,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,6 +892,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -919,187 +929,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1120,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1139,17 +1164,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1159,24 +1173,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,225 +1211,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1778,10 +1773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1789,7 +1784,7 @@
     <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="75.6296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7777777777778" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.7777777777778" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1802,7 +1797,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1813,7 +1808,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1824,7 +1819,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1833,14 +1828,14 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1848,7 +1843,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1852,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1866,29 +1861,29 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>17817836856</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1896,10 +1891,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1907,8 +1902,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1916,28 +1911,28 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1945,8 +1940,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1954,14 +1949,13 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="6"/>
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
@@ -1970,7 +1964,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1979,7 +1973,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2002,19 +1996,19 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2022,33 +2016,32 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5"/>
+    <row r="25" spans="3:3">
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="4:4">
-      <c r="D27" s="7"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2059,7 +2052,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2068,7 +2061,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2077,8 +2070,8 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2086,15 +2079,14 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2102,10 +2094,10 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="4:4">
-      <c r="D34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2116,14 +2108,14 @@
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="8"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>17817836856</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2131,7 +2123,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
@@ -2140,7 +2132,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
@@ -2149,7 +2141,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
@@ -2158,7 +2150,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2167,7 +2159,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2176,14 +2168,13 @@
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="12" t="s">
+      <c r="A42" s="6"/>
+      <c r="C42" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="8"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2192,7 +2183,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="8"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2201,14 +2192,14 @@
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:5">
-      <c r="A45" s="8"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2216,24 +2207,24 @@
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:4">
-      <c r="A46" s="8"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="13"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
-      <c r="A47" s="8"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2241,8 +2232,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="6"/>
+      <c r="B48" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2250,8 +2241,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="6"/>
+      <c r="B49" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2259,15 +2250,15 @@
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51" s="6" customFormat="1" spans="1:4">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17" t="s">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:4">
+      <c r="A51" s="12"/>
+      <c r="B51" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:6">
       <c r="B52" s="1" t="s">
@@ -2276,7 +2267,7 @@
       <c r="C52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
         <v>106</v>
       </c>
@@ -2285,175 +2276,171 @@
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="5"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="5"/>
-      <c r="C55" s="19" t="s">
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" s="6" customFormat="1" spans="2:4">
-      <c r="B59" s="17" t="s">
+    <row r="58" spans="3:3">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="2:4">
+      <c r="B59" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="5"/>
-      <c r="C65" s="19"/>
+    <row r="65" spans="3:3">
+      <c r="C65" s="2"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="4:4">
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" s="6" customFormat="1" spans="2:4">
-      <c r="B67" s="20" t="s">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" s="4" customFormat="1" spans="2:4">
+      <c r="B67" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="18"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C68" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="5">
         <v>17817836856</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2461,65 +2448,65 @@
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="4:4">
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" s="6" customFormat="1" spans="2:4">
-      <c r="B74" s="20" t="s">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" s="4" customFormat="1" spans="2:4">
+      <c r="B74" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="18"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2527,14 +2514,14 @@
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="4:4">
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" s="6" customFormat="1" spans="2:4">
-      <c r="B83" s="17" t="s">
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" s="4" customFormat="1" spans="2:4">
+      <c r="B83" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="18"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
@@ -2609,32 +2596,58 @@
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="4:4">
-      <c r="D93" s="7"/>
-    </row>
-    <row r="94" s="1" customFormat="1" spans="2:4">
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="2:6">
       <c r="B94" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="9" t="s">
         <v>180</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:6">
       <c r="B95" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E95" s="7">
+      <c r="D95" s="9"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:6">
+      <c r="B96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="5">
         <v>12345678</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2673,71 +2686,74 @@
     <hyperlink ref="C28" r:id="rId15" display="http://www.json.cn/"/>
     <hyperlink ref="C29" r:id="rId16" display="https://www.bejson.com/"/>
     <hyperlink ref="C30" r:id="rId17" display="http://tool.oschina.net/regex/#"/>
-    <hyperlink ref="C9" r:id="rId18" display="http://www.chsi.com.cn/"/>
-    <hyperlink ref="C35" r:id="rId19" display="https://www.w3cschool.cn/"/>
-    <hyperlink ref="C36" r:id="rId20" display="https://www.zhihu.com/"/>
-    <hyperlink ref="C37" r:id="rId21" display="https://www.imooc.com/"/>
-    <hyperlink ref="C38" r:id="rId22" display="http://sc.chinaz.com/" tooltip="http://sc.chinaz.com/"/>
-    <hyperlink ref="C39" r:id="rId23" display="http://www.faisco.com/"/>
-    <hyperlink ref="C40" r:id="rId24" display="http://news.shimo.3.biz/"/>
-    <hyperlink ref="C41" r:id="rId25" display="https://free.modao.cc"/>
-    <hyperlink ref="C42" r:id="rId26" display="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639" tooltip="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639"/>
-    <hyperlink ref="C43" r:id="rId27" display="http://www.demodashi.com"/>
-    <hyperlink ref="C44" r:id="rId28" display="https://yunzhong.worktile.com/"/>
-    <hyperlink ref="C52" r:id="rId29" display="https://mp.weixin.qq.com/"/>
-    <hyperlink ref="F52" r:id="rId30" display="1456300078@qq.com"/>
-    <hyperlink ref="C84" r:id="rId31" display="https://www.taobao.com/"/>
-    <hyperlink ref="C85" r:id="rId32" display="https://www.jd.com/"/>
-    <hyperlink ref="C86" r:id="rId33" display="http://news.17173.com/"/>
-    <hyperlink ref="C87" r:id="rId34" display="http://www.shuowan.com/"/>
-    <hyperlink ref="C88" r:id="rId35" display="http://mini.eastday.com"/>
-    <hyperlink ref="C89" r:id="rId36" display="https://www.cnblogs.com/"/>
-    <hyperlink ref="C90" r:id="rId37" display="https://shimo.im/"/>
-    <hyperlink ref="C91" r:id="rId38" display="http://bai.com/" tooltip="http://bai.com/"/>
-    <hyperlink ref="C68" r:id="rId39" display="https://pan.baidu.com/"/>
-    <hyperlink ref="C53" r:id="rId40" display="https://developers.weixin.qq.com/miniprogram/dev/extended/weui/"/>
-    <hyperlink ref="C54" r:id="rId41" display="https://vant-contrib.gitee.io/vant-weapp/#/intro"/>
-    <hyperlink ref="C55" r:id="rId42" display="https://youzan.github.io/vant-weapp/#/col"/>
-    <hyperlink ref="C56" r:id="rId43" display="http://mpvue.com"/>
-    <hyperlink ref="C57" r:id="rId44" display="https://weapp.iviewui.com/"/>
-    <hyperlink ref="C60" r:id="rId45" display="https://dvajs.com/"/>
-    <hyperlink ref="C61" r:id="rId46" display="https://umijs.org/zh-CN/docs"/>
-    <hyperlink ref="C62" r:id="rId47" display="https://ant-design.gitee.io"/>
-    <hyperlink ref="C63" r:id="rId48" display="https://www.jianshu.com/p/d7b0f6a10f33"/>
-    <hyperlink ref="C64" r:id="rId49" display="https://www.jianshu.com/p/b331d0e4b398"/>
-    <hyperlink ref="C75" r:id="rId50" display="https://echarts.apache.org/zh/option.html#title"/>
-    <hyperlink ref="C76" r:id="rId51" display="https://www.w3cschool.cn/echarts_tutorial/echarts_tutorial-mec528xa.html"/>
-    <hyperlink ref="C71" r:id="rId52" display="https://docs.qq.com"/>
-    <hyperlink ref="C77" r:id="rId53" display="https://elemefe.github.io/vue-amap/#/zh-cn/examples/base/amap"/>
-    <hyperlink ref="C78" r:id="rId54" display="https://dafrok.github.io/vue-baidu-map/#/zh/index"/>
-    <hyperlink ref="C79" r:id="rId55" display="http://lbsyun.baidu.com"/>
-    <hyperlink ref="C80" r:id="rId56" display="https://console.amap.com/dev/index"/>
-    <hyperlink ref="C81" r:id="rId57" display="http://lbsyun.baidu.com/apiconsole/key#/home"/>
-    <hyperlink ref="C72" r:id="rId58" display="https://uniapp.dcloud.io/quickstart-hx"/>
-    <hyperlink ref="D72" r:id="rId59" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
-    <hyperlink ref="C23" r:id="rId60" display="http://www.iconfont.cn/"/>
-    <hyperlink ref="C24" r:id="rId61" display="http://www.bootcss.com/"/>
-    <hyperlink ref="C22" r:id="rId62" display="https://fontawesome.dashgame.com/"/>
-    <hyperlink ref="C26" r:id="rId63" display="https://www.lodashjs.com/"/>
-    <hyperlink ref="C33" r:id="rId64" display="http://www.swiper.com.cn/api/"/>
-    <hyperlink ref="C31" r:id="rId65" display="https://www.runoob.com/cssref/css-colorsfull.html"/>
-    <hyperlink ref="C45" r:id="rId66" display="https://bywave.art           https://bywave.art/download"/>
-    <hyperlink ref="C47" r:id="rId67" display="https://lanhuapp.com"/>
-    <hyperlink ref="D47" r:id="rId59" display="2693281934@qq.com"/>
-    <hyperlink ref="B48" r:id="rId68" display="gitlab" tooltip="https://gitlab.com"/>
-    <hyperlink ref="C48" r:id="rId68" display="https://gitlab.com"/>
-    <hyperlink ref="C16" r:id="rId69" display="https://www.antdv.com/" tooltip="https://www.antdv.com/"/>
-    <hyperlink ref="D45" r:id="rId59" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
-    <hyperlink ref="C49" r:id="rId70" display="https://uniapp.dcloud.io/"/>
-    <hyperlink ref="C15" r:id="rId71" display="https://ant.design/" tooltip="https://ant.design/"/>
-    <hyperlink ref="C92" r:id="rId72" display="https://www.ipip.net/"/>
-    <hyperlink ref="D94" r:id="rId73" display="luchanrong@gmail.com "/>
-    <hyperlink ref="C95" r:id="rId74" display="https://www.soft-down.net/detail/453901/4539009995.shtml?type=jingzhun"/>
-    <hyperlink ref="D95" r:id="rId59" display="rafael66"/>
-    <hyperlink ref="F95" r:id="rId59" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
-    <hyperlink ref="C69" r:id="rId75" display="https://www.huorong.cn/" tooltip="https://www.huorong.cn/"/>
-    <hyperlink ref="C11" r:id="rId76" display="https://xuliangzhan_admin.gitee.io/vxe-table" tooltip="https://xuliangzhan_admin.gitee.io/vxe-table"/>
-    <hyperlink ref="C46" r:id="rId77" display="https://telegram.org/" tooltip="https://telegram.org/"/>
+    <hyperlink ref="C35" r:id="rId18" display="https://www.w3cschool.cn/"/>
+    <hyperlink ref="C36" r:id="rId19" display="https://www.zhihu.com/"/>
+    <hyperlink ref="C37" r:id="rId20" display="https://www.imooc.com/"/>
+    <hyperlink ref="C38" r:id="rId21" display="http://sc.chinaz.com/" tooltip="http://sc.chinaz.com/"/>
+    <hyperlink ref="C39" r:id="rId22" display="http://www.faisco.com/"/>
+    <hyperlink ref="C40" r:id="rId23" display="http://news.shimo.3.biz/"/>
+    <hyperlink ref="C41" r:id="rId24" display="https://free.modao.cc"/>
+    <hyperlink ref="C42" r:id="rId25" display="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639" tooltip="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639"/>
+    <hyperlink ref="C43" r:id="rId26" display="http://www.demodashi.com"/>
+    <hyperlink ref="C44" r:id="rId27" display="https://yunzhong.worktile.com/"/>
+    <hyperlink ref="C52" r:id="rId28" display="https://mp.weixin.qq.com/"/>
+    <hyperlink ref="F52" r:id="rId29" display="1456300078@qq.com"/>
+    <hyperlink ref="C84" r:id="rId30" display="https://www.taobao.com/"/>
+    <hyperlink ref="C85" r:id="rId31" display="https://www.jd.com/"/>
+    <hyperlink ref="C86" r:id="rId32" display="http://news.17173.com/"/>
+    <hyperlink ref="C87" r:id="rId33" display="http://www.shuowan.com/"/>
+    <hyperlink ref="C88" r:id="rId34" display="http://mini.eastday.com"/>
+    <hyperlink ref="C89" r:id="rId35" display="https://www.cnblogs.com/"/>
+    <hyperlink ref="C90" r:id="rId36" display="https://shimo.im/"/>
+    <hyperlink ref="C91" r:id="rId37" display="http://bai.com/" tooltip="http://bai.com/"/>
+    <hyperlink ref="C68" r:id="rId38" display="https://pan.baidu.com/"/>
+    <hyperlink ref="C53" r:id="rId39" display="https://developers.weixin.qq.com/miniprogram/dev/extended/weui/"/>
+    <hyperlink ref="C54" r:id="rId40" display="https://vant-contrib.gitee.io/vant-weapp/#/intro"/>
+    <hyperlink ref="C55" r:id="rId41" display="https://youzan.github.io/vant-weapp/#/col"/>
+    <hyperlink ref="C56" r:id="rId42" display="http://mpvue.com"/>
+    <hyperlink ref="C57" r:id="rId43" display="https://weapp.iviewui.com/"/>
+    <hyperlink ref="C60" r:id="rId44" display="https://dvajs.com/"/>
+    <hyperlink ref="C61" r:id="rId45" display="https://umijs.org/zh-CN/docs"/>
+    <hyperlink ref="C62" r:id="rId46" display="https://ant-design.gitee.io"/>
+    <hyperlink ref="C63" r:id="rId47" display="https://www.jianshu.com/p/d7b0f6a10f33"/>
+    <hyperlink ref="C64" r:id="rId48" display="https://www.jianshu.com/p/b331d0e4b398"/>
+    <hyperlink ref="C75" r:id="rId49" display="https://echarts.apache.org/zh/option.html#title"/>
+    <hyperlink ref="C76" r:id="rId50" display="https://www.w3cschool.cn/echarts_tutorial/echarts_tutorial-mec528xa.html"/>
+    <hyperlink ref="C71" r:id="rId51" display="https://docs.qq.com"/>
+    <hyperlink ref="C77" r:id="rId52" display="https://elemefe.github.io/vue-amap/#/zh-cn/examples/base/amap"/>
+    <hyperlink ref="C78" r:id="rId53" display="https://dafrok.github.io/vue-baidu-map/#/zh/index"/>
+    <hyperlink ref="C79" r:id="rId54" display="http://lbsyun.baidu.com"/>
+    <hyperlink ref="C80" r:id="rId55" display="https://console.amap.com/dev/index"/>
+    <hyperlink ref="C81" r:id="rId56" display="http://lbsyun.baidu.com/apiconsole/key#/home"/>
+    <hyperlink ref="C72" r:id="rId57" display="https://uniapp.dcloud.io/quickstart-hx"/>
+    <hyperlink ref="D72" r:id="rId58" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
+    <hyperlink ref="C23" r:id="rId59" display="http://www.iconfont.cn/"/>
+    <hyperlink ref="C24" r:id="rId60" display="http://www.bootcss.com/"/>
+    <hyperlink ref="C22" r:id="rId61" display="https://fontawesome.dashgame.com/"/>
+    <hyperlink ref="C26" r:id="rId62" display="https://www.lodashjs.com/"/>
+    <hyperlink ref="C33" r:id="rId63" display="http://www.swiper.com.cn/api/"/>
+    <hyperlink ref="C31" r:id="rId64" display="https://www.runoob.com/cssref/css-colorsfull.html"/>
+    <hyperlink ref="C45" r:id="rId65" display="https://bywave.art           https://bywave.art/download"/>
+    <hyperlink ref="C47" r:id="rId66" display="https://lanhuapp.com"/>
+    <hyperlink ref="D47" r:id="rId58" display="2693281934@qq.com"/>
+    <hyperlink ref="B48" r:id="rId67" display="gitlab" tooltip="https://gitlab.com"/>
+    <hyperlink ref="C48" r:id="rId67" display="https://gitlab.com"/>
+    <hyperlink ref="C16" r:id="rId68" display="https://www.antdv.com/" tooltip="https://www.antdv.com/"/>
+    <hyperlink ref="D45" r:id="rId58" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
+    <hyperlink ref="C49" r:id="rId69" display="https://uniapp.dcloud.io/"/>
+    <hyperlink ref="C15" r:id="rId70" display="https://ant.design/" tooltip="https://ant.design/"/>
+    <hyperlink ref="C92" r:id="rId71" display="https://www.ipip.net/"/>
+    <hyperlink ref="D94" r:id="rId72" display="luchanrong@gmail.com" tooltip="mailto:luchanrong@gmail.com"/>
+    <hyperlink ref="C96" r:id="rId73" display="https://www.soft-down.net/detail/453901/4539009995.shtml?type=jingzhun"/>
+    <hyperlink ref="D96" r:id="rId58" display="rafael66"/>
+    <hyperlink ref="F96" r:id="rId58" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
+    <hyperlink ref="C69" r:id="rId74" display="https://www.huorong.cn/" tooltip="https://www.huorong.cn/"/>
+    <hyperlink ref="C11" r:id="rId75" display="https://xuliangzhan_admin.gitee.io/vxe-table" tooltip="https://xuliangzhan_admin.gitee.io/vxe-table"/>
+    <hyperlink ref="C46" r:id="rId76" display="https://telegram.org/" tooltip="https://telegram.org/"/>
+    <hyperlink ref="F94" r:id="rId29" display="1456300078@qq.com"/>
+    <hyperlink ref="C9" r:id="rId77" display="http://www.chsi.com.cn/"/>
+    <hyperlink ref="C95" r:id="rId78" display="https://meet.google.com/odr-dnwz-ywu"/>
+    <hyperlink ref="C97" r:id="rId79" display="https://ecs-buy.aliyun.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2750,7 +2766,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2764,7 +2780,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2772,106 +2788,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>208</v>
+      <c r="A15" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2898,21 +2914,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="218">
   <si>
     <t>网站名</t>
   </si>
@@ -625,6 +625,12 @@
     <t>淘宝账号登录</t>
   </si>
   <si>
+    <t>码云</t>
+  </si>
+  <si>
+    <t>https://gitee.com/</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
@@ -727,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -778,8 +784,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,8 +799,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -816,44 +882,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -862,10 +890,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,34 +913,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -929,187 +935,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,6 +1126,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1148,41 +1213,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1196,30 +1226,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,137 +1246,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1429,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1773,10 +1782,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2648,6 +2657,14 @@
       </c>
       <c r="D97" s="5" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2677,7 +2694,7 @@
     <hyperlink ref="C7" r:id="rId6" display="https://mail.qq.com/"/>
     <hyperlink ref="C10" r:id="rId7" display="https://element.eleme.cn" tooltip="https://element.eleme.cn"/>
     <hyperlink ref="C12" r:id="rId8" display="https://www.iviewui.com"/>
-    <hyperlink ref="C13" r:id="rId9" display="http://mint-ui.github.io"/>
+    <hyperlink ref="C13" r:id="rId9" display="http://mint-ui.github.io" tooltip="http://mint-ui.github.io"/>
     <hyperlink ref="C14" r:id="rId10" display="https://vant-contrib.gitee.io/vant/#/zh-CN/" tooltip="https://vant-contrib.gitee.io/vant/#/zh-CN/"/>
     <hyperlink ref="C17" r:id="rId11" display="http://www.muse-ui.org" tooltip="http://www.muse-ui.org"/>
     <hyperlink ref="C18" r:id="rId12" display="http://www.easybui.com/docs/?id=controls"/>
@@ -2753,7 +2770,8 @@
     <hyperlink ref="F94" r:id="rId29" display="1456300078@qq.com"/>
     <hyperlink ref="C9" r:id="rId77" display="http://www.chsi.com.cn/"/>
     <hyperlink ref="C95" r:id="rId78" display="https://meet.google.com/odr-dnwz-ywu"/>
-    <hyperlink ref="C97" r:id="rId79" display="https://ecs-buy.aliyun.com"/>
+    <hyperlink ref="C97" r:id="rId79" display="https://ecs-buy.aliyun.com" tooltip="https://ecs-buy.aliyun.com"/>
+    <hyperlink ref="C98" r:id="rId80" display="https://gitee.com/" tooltip="https://gitee.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2767,7 +2785,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2780,7 +2798,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2788,106 +2806,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="14160" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
@@ -733,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -792,6 +792,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -807,14 +844,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,6 +859,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -829,37 +874,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -874,32 +897,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,8 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,6 +935,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -947,13 +983,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,115 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,37 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,15 +1149,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1173,16 +1164,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1212,16 +1203,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1234,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,16 +1246,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,112 +1267,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14160" windowHeight="10140"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
@@ -733,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -792,16 +792,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,69 +823,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,7 +846,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,8 +861,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,24 +935,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -965,13 +1085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,139 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,15 +1126,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1149,31 +1140,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1203,6 +1179,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1212,16 +1203,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1234,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,16 +1246,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,112 +1267,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,8 +1784,8 @@
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2757,7 +2757,7 @@
     <hyperlink ref="C48" r:id="rId67" display="https://gitlab.com"/>
     <hyperlink ref="C16" r:id="rId68" display="https://www.antdv.com/" tooltip="https://www.antdv.com/"/>
     <hyperlink ref="D45" r:id="rId58" display="2693281934@qq.com" tooltip="mailto:2693281934@qq.com"/>
-    <hyperlink ref="C49" r:id="rId69" display="https://uniapp.dcloud.io/"/>
+    <hyperlink ref="C49" r:id="rId69" display="https://uniapp.dcloud.io/" tooltip="https://uniapp.dcloud.io/"/>
     <hyperlink ref="C15" r:id="rId70" display="https://ant.design/" tooltip="https://ant.design/"/>
     <hyperlink ref="C92" r:id="rId71" display="https://www.ipip.net/"/>
     <hyperlink ref="D94" r:id="rId72" display="luchanrong@gmail.com" tooltip="mailto:luchanrong@gmail.com"/>
@@ -2785,7 +2785,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2923,8 +2923,8 @@
     <hyperlink ref="B13" r:id="rId8" display="http://www.jb51.net/article/129932.htm"/>
     <hyperlink ref="B14" r:id="rId9" display="http://www.cnblogs.com/blackin/archive/2017/12/06/7993868.html"/>
     <hyperlink ref="B15" r:id="rId10" display="http://www.qdfuns.com/notes/25100/82982d78c511e1d3e0b1940bff832b81.html"/>
-    <hyperlink ref="B2" r:id="rId11" display="https://jingyan.baidu.com/article/11c17a2cfb88d6f446e39d82.html"/>
-    <hyperlink ref="C2" r:id="rId12" display="https://www.ipaddress.com/"/>
+    <hyperlink ref="B2" r:id="rId11" display="https://jingyan.baidu.com/article/11c17a2cfb88d6f446e39d82.html" tooltip="https://jingyan.baidu.com/article/11c17a2cfb88d6f446e39d82.html"/>
+    <hyperlink ref="C2" r:id="rId12" display="https://www.ipaddress.com/" tooltip="https://www.ipaddress.com/"/>
     <hyperlink ref="B3" r:id="rId13" display="https://gitee.com/wukongcrm/W72crm_web"/>
     <hyperlink ref="B4" r:id="rId14" display="https://gitee.com/wukongcrm/crm_pro"/>
   </hyperlinks>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="219">
   <si>
     <t>网站名</t>
   </si>
@@ -457,6 +457,10 @@
     <t>https://pan.baidu.com/</t>
   </si>
   <si>
+    <t>ABC******
+Aa1****6</t>
+  </si>
+  <si>
     <t>去广告，开机启动</t>
   </si>
   <si>
@@ -733,10 +737,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -793,6 +797,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -801,7 +826,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,66 +896,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -884,22 +904,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,9 +917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,187 +939,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,28 +1133,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,30 +1172,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1226,6 +1195,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1234,10 +1238,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,16 +1250,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1267,112 +1271,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,8 +1788,8 @@
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F69" sqref="F68:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2392,7 +2396,7 @@
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:5">
+    <row r="68" s="1" customFormat="1" ht="28.8" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>131</v>
       </c>
@@ -2405,38 +2409,38 @@
       <c r="D68" s="5">
         <v>17817836856</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>23</v>
+      <c r="E68" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
@@ -2444,16 +2448,16 @@
         <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="4:4">
@@ -2461,65 +2465,65 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="2:4">
       <c r="B74" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="4:4">
@@ -2527,81 +2531,81 @@
     </row>
     <row r="83" s="4" customFormat="1" spans="2:4">
       <c r="B83" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="4:4">
@@ -2609,13 +2613,13 @@
     </row>
     <row r="94" s="1" customFormat="1" spans="2:6">
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>107</v>
@@ -2623,23 +2627,23 @@
     </row>
     <row r="95" s="1" customFormat="1" spans="2:6">
       <c r="B95" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D95" s="9"/>
       <c r="F95" s="17"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:6">
       <c r="B96" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E96" s="5">
         <v>12345678</v>
@@ -2650,21 +2654,21 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2802,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2806,106 +2810,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
   <si>
     <t>网站名</t>
   </si>
@@ -618,15 +618,6 @@
   </si>
   <si>
     <t>rafael66</t>
-  </si>
-  <si>
-    <t>阿里云</t>
-  </si>
-  <si>
-    <t>https://ecs-buy.aliyun.com</t>
-  </si>
-  <si>
-    <t>淘宝账号登录</t>
   </si>
   <si>
     <t>码云</t>
@@ -1786,10 +1777,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F69" sqref="F68:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2652,23 +2643,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:3">
       <c r="B97" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2774,8 +2754,7 @@
     <hyperlink ref="F94" r:id="rId29" display="1456300078@qq.com"/>
     <hyperlink ref="C9" r:id="rId77" display="http://www.chsi.com.cn/"/>
     <hyperlink ref="C95" r:id="rId78" display="https://meet.google.com/odr-dnwz-ywu"/>
-    <hyperlink ref="C97" r:id="rId79" display="https://ecs-buy.aliyun.com" tooltip="https://ecs-buy.aliyun.com"/>
-    <hyperlink ref="C98" r:id="rId80" display="https://gitee.com/" tooltip="https://gitee.com/"/>
+    <hyperlink ref="C97" r:id="rId79" display="https://gitee.com/" tooltip="https://gitee.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2802,7 +2781,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2810,106 +2789,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="220">
   <si>
     <t>网站名</t>
   </si>
@@ -405,28 +405,6 @@
     <t>https://umijs.org/zh-CN/docs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i组件</t>
-    </r>
-  </si>
-  <si>
     <t>Ant-design</t>
   </si>
   <si>
@@ -624,6 +602,23 @@
   </si>
   <si>
     <t>https://gitee.com/</t>
+  </si>
+  <si>
+    <t>全国12315平台
+消费者协会</t>
+  </si>
+  <si>
+    <t>https://www.12315.cn/</t>
+  </si>
+  <si>
+    <t>rafael_lu</t>
+  </si>
+  <si>
+    <t>杭州互联网金融法院
+网案件的试点法院</t>
+  </si>
+  <si>
+    <t>http://hztl.zjcourt.cn/</t>
   </si>
   <si>
     <t>标题</t>
@@ -1777,10 +1772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2349,29 +2344,29 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65" spans="3:3">
@@ -2382,56 +2377,56 @@
     </row>
     <row r="67" s="4" customFormat="1" spans="2:4">
       <c r="B67" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="28.8" spans="1:5">
       <c r="A68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="5">
         <v>17817836856</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
@@ -2439,16 +2434,16 @@
         <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="4:4">
@@ -2456,65 +2451,65 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="2:4">
       <c r="B74" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="14"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="4:4">
@@ -2522,81 +2517,81 @@
     </row>
     <row r="83" s="4" customFormat="1" spans="2:4">
       <c r="B83" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="4:4">
@@ -2604,13 +2599,13 @@
     </row>
     <row r="94" s="1" customFormat="1" spans="2:6">
       <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="E94" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>107</v>
@@ -2618,23 +2613,23 @@
     </row>
     <row r="95" s="1" customFormat="1" spans="2:6">
       <c r="B95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="D95" s="9"/>
       <c r="F95" s="17"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:6">
       <c r="B96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="E96" s="5">
         <v>12345678</v>
@@ -2645,10 +2640,32 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C97" s="18" t="s">
+    </row>
+    <row r="98" ht="28.8" spans="2:5">
+      <c r="B98" s="6" t="s">
         <v>189</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" ht="28.8" spans="2:3">
+      <c r="B99" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +2730,8 @@
     <hyperlink ref="C55" r:id="rId41" display="https://youzan.github.io/vant-weapp/#/col"/>
     <hyperlink ref="C56" r:id="rId42" display="http://mpvue.com"/>
     <hyperlink ref="C57" r:id="rId43" display="https://weapp.iviewui.com/"/>
-    <hyperlink ref="C60" r:id="rId44" display="https://dvajs.com/"/>
-    <hyperlink ref="C61" r:id="rId45" display="https://umijs.org/zh-CN/docs"/>
+    <hyperlink ref="C60" r:id="rId44" display="https://dvajs.com/" tooltip="https://dvajs.com/"/>
+    <hyperlink ref="C61" r:id="rId45" display="https://umijs.org/zh-CN/docs" tooltip="https://umijs.org/zh-CN/docs"/>
     <hyperlink ref="C62" r:id="rId46" display="https://ant-design.gitee.io"/>
     <hyperlink ref="C63" r:id="rId47" display="https://www.jianshu.com/p/d7b0f6a10f33"/>
     <hyperlink ref="C64" r:id="rId48" display="https://www.jianshu.com/p/b331d0e4b398"/>
@@ -2755,6 +2772,8 @@
     <hyperlink ref="C9" r:id="rId77" display="http://www.chsi.com.cn/"/>
     <hyperlink ref="C95" r:id="rId78" display="https://meet.google.com/odr-dnwz-ywu"/>
     <hyperlink ref="C97" r:id="rId79" display="https://gitee.com/" tooltip="https://gitee.com/"/>
+    <hyperlink ref="C98" r:id="rId80" display="https://www.12315.cn/"/>
+    <hyperlink ref="C99" r:id="rId81" display="http://hztl.zjcourt.cn/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2781,7 +2800,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2789,106 +2808,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9024"/>
+    <workbookView windowWidth="22368" windowHeight="9467"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="222">
   <si>
     <t>网站名</t>
   </si>
@@ -306,7 +306,8 @@
     <t>https://yunzhong.worktile.com/</t>
   </si>
   <si>
-    <t>翻墙软件bywave</t>
+    <t>翻墙软件bywave
+搜索：bywave官方下载</t>
   </si>
   <si>
     <t>https://bywave.art           https://bywave.art/download</t>
@@ -343,6 +344,13 @@
   </si>
   <si>
     <t>https://uniapp.dcloud.io/</t>
+  </si>
+  <si>
+    <t>桌面应用程序的框架
+跨平台应用</t>
+  </si>
+  <si>
+    <t>https://www.electronjs.org/zh/docs/latest/</t>
   </si>
   <si>
     <t>小程序</t>
@@ -1403,6 +1411,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1417,9 +1428,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1774,8 +1782,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C54" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2190,9 +2198,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:5">
+    <row r="45" s="1" customFormat="1" ht="28.8" spans="1:5">
       <c r="A45" s="6"/>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2248,125 +2256,131 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" ht="28.8" spans="1:3">
       <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:6">
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D53" s="5"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="2"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="2:4">
-      <c r="B59" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
+      <c r="B59" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="3:3">
@@ -2376,57 +2390,57 @@
       <c r="D66" s="5"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="2:4">
-      <c r="B67" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="14"/>
+      <c r="B67" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="15"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="28.8" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D68" s="5">
         <v>17817836856</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:5">
@@ -2434,164 +2448,164 @@
         <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="4:4">
       <c r="D73" s="5"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="2:4">
-      <c r="B74" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="14"/>
+      <c r="B74" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="4:4">
       <c r="D82" s="5"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="2:4">
-      <c r="B83" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="B83" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="4:4">
@@ -2599,37 +2613,37 @@
     </row>
     <row r="94" s="1" customFormat="1" spans="2:6">
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>107</v>
+        <v>183</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:6">
       <c r="B95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:6">
       <c r="B96" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E96" s="5">
         <v>12345678</v>
@@ -2640,21 +2654,21 @@
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" ht="28.8" spans="2:5">
       <c r="B98" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>93</v>
@@ -2662,10 +2676,10 @@
     </row>
     <row r="99" ht="28.8" spans="2:3">
       <c r="B99" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2774,6 +2788,7 @@
     <hyperlink ref="C97" r:id="rId79" display="https://gitee.com/" tooltip="https://gitee.com/"/>
     <hyperlink ref="C98" r:id="rId80" display="https://www.12315.cn/"/>
     <hyperlink ref="C99" r:id="rId81" display="http://hztl.zjcourt.cn/"/>
+    <hyperlink ref="C50" r:id="rId82" display="https://www.electronjs.org/zh/docs/latest/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2800,7 +2815,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2808,106 +2823,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -307,10 +307,12 @@
   </si>
   <si>
     <t>翻墙软件bywave
-搜索：bywave官方下载</t>
-  </si>
-  <si>
-    <t>https://bywave.art           https://bywave.art/download</t>
+搜索：bywave官方下载
+手机bywave软件进入官网，客服里有下载链接</t>
+  </si>
+  <si>
+    <t>https://bywave.art           https://bywave.art/download
+https://console.bywa.art/download</t>
   </si>
   <si>
     <t>2693281934@qq.com</t>
@@ -1374,7 +1376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,6 +1403,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1782,8 +1787,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C53:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2198,15 +2203,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="28.8" spans="1:5">
+    <row r="45" s="1" customFormat="1" ht="57.6" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2221,7 +2226,7 @@
       <c r="C46" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:5">
       <c r="A47" s="6"/>
@@ -2231,7 +2236,7 @@
       <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2240,7 +2245,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="6"/>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2249,7 +2254,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="6"/>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2261,17 +2266,17 @@
       <c r="B50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:6">
       <c r="B52" s="1" t="s">
@@ -2334,11 +2339,11 @@
       <c r="C58" s="2"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="2:4">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="1" t="s">
@@ -2390,11 +2395,11 @@
       <c r="D66" s="5"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="2:4">
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="16"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="28.8" spans="1:5">
       <c r="A68" s="1" t="s">
@@ -2420,7 +2425,7 @@
       <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="18" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2453,7 +2458,7 @@
       <c r="C72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -2464,11 +2469,11 @@
       <c r="D73" s="5"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="2:4">
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="1" t="s">
@@ -2530,11 +2535,11 @@
       <c r="D82" s="5"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="2:4">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="1" t="s">
@@ -2615,13 +2620,13 @@
       <c r="B94" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2629,11 +2634,11 @@
       <c r="B95" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="10"/>
+      <c r="F95" s="13"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:6">
       <c r="B96" s="1" t="s">
@@ -2642,7 +2647,7 @@
       <c r="C96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="10" t="s">
         <v>188</v>
       </c>
       <c r="E96" s="5">
@@ -2656,7 +2661,7 @@
       <c r="B97" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="19" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2664,7 +2669,7 @@
       <c r="B98" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="13" t="s">
         <v>192</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -2678,7 +2683,7 @@
       <c r="B99" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2765,7 +2770,7 @@
     <hyperlink ref="C26" r:id="rId62" display="https://www.lodashjs.com/"/>
     <hyperlink ref="C33" r:id="rId63" display="http://www.swiper.com.cn/api/"/>
     <hyperlink ref="C31" r:id="rId64" display="https://www.runoob.com/cssref/css-colorsfull.html"/>
-    <hyperlink ref="C45" r:id="rId65" display="https://bywave.art           https://bywave.art/download"/>
+    <hyperlink ref="C45" r:id="rId65" display="https://bywave.art           https://bywave.art/download&#10;https://console.bywa.art/download"/>
     <hyperlink ref="C47" r:id="rId66" display="https://lanhuapp.com"/>
     <hyperlink ref="D47" r:id="rId58" display="2693281934@qq.com"/>
     <hyperlink ref="B48" r:id="rId67" display="gitlab" tooltip="https://gitlab.com"/>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -321,7 +321,8 @@
     <t>ABC123456</t>
   </si>
   <si>
-    <t>telegram下载</t>
+    <t>telegram下载
+搜索：telegeram中文版官网下载</t>
   </si>
   <si>
     <t>https://telegram.org/</t>
@@ -1787,8 +1788,8 @@
   <sheetPr/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C52:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2218,9 +2219,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="28.8" spans="1:4">
       <c r="A46" s="6"/>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="7" t="s">

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="网址" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="226">
   <si>
     <t>网站名</t>
   </si>
@@ -630,6 +630,21 @@
   </si>
   <si>
     <t>http://hztl.zjcourt.cn/</t>
+  </si>
+  <si>
+    <t>服务器ip
+电脑ip：打开终端 》 ipconfig</t>
+  </si>
+  <si>
+    <t>https://ip.cn/</t>
+  </si>
+  <si>
+    <t>百度文章复制用
+账号：18816784024
+密码：BJZLTF123456.</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/</t>
   </si>
   <si>
     <t>标题</t>
@@ -1377,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,6 +1452,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1786,18 +1804,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C52:C53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.6296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7777777777778" style="5" customWidth="1"/>
+    <col min="3" max="3" width="75.6333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.775" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.75" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -2204,7 +2222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="57.6" spans="1:5">
+    <row r="45" s="1" customFormat="1" ht="54" spans="1:5">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
         <v>90</v>
@@ -2219,7 +2237,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="28.8" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="27" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="s">
         <v>94</v>
@@ -2262,7 +2280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:3">
+    <row r="50" ht="27" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>103</v>
@@ -2402,7 +2420,7 @@
       <c r="C67" s="17"/>
       <c r="D67" s="16"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="28.8" spans="1:5">
+    <row r="68" s="1" customFormat="1" ht="27" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="98" ht="28.8" spans="2:5">
+    <row r="98" ht="27" spans="2:5">
       <c r="B98" s="6" t="s">
         <v>191</v>
       </c>
@@ -2680,12 +2698,28 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" ht="28.8" spans="2:3">
+    <row r="99" ht="27" spans="2:3">
       <c r="B99" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="2:3">
+      <c r="B100" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" ht="40.5" spans="2:3">
+      <c r="B101" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2795,6 +2829,8 @@
     <hyperlink ref="C98" r:id="rId80" display="https://www.12315.cn/"/>
     <hyperlink ref="C99" r:id="rId81" display="http://hztl.zjcourt.cn/"/>
     <hyperlink ref="C50" r:id="rId82" display="https://www.electronjs.org/zh/docs/latest/"/>
+    <hyperlink ref="C100" r:id="rId83" display="https://ip.cn/"/>
+    <hyperlink ref="C101" r:id="rId84" display="https://blog.csdn.net/" tooltip="https://blog.csdn.net/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2811,17 +2847,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="50.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="80.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.6296296296296" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.87962962962963" style="1"/>
+    <col min="3" max="3" width="30.6333333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2829,106 +2865,106 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/website/link.xlsx
+++ b/website/link.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="网址" r:id="rId3" sheetId="1"/>
-    <sheet name="单页网址" r:id="rId4" sheetId="2"/>
+    <sheet name="网址" sheetId="1" r:id="rId3"/>
+    <sheet name="单页网址" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterate="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>网站名</t>
   </si>
@@ -93,17 +92,23 @@
   <si>
     <r>
       <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
+        <rFont val="SimSun"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
         <color rgb="000000"/>
+        <sz val="11"/>
       </rPr>
       <t xml:space="preserve">element ui</t>
     </r>
     <r>
       <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
+        <rFont val="SimSun"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
         <color rgb="000000"/>
+        <sz val="11"/>
       </rPr>
       <t>(常用)</t>
     </r>
@@ -118,7 +123,7 @@
     <t>https://xuliangzhan_admin.gitee.io/vxe-table</t>
   </si>
   <si>
-    <t>iview ui</t>
+    <t xml:space="preserve">iview ui</t>
   </si>
   <si>
     <t>https://www.iviewui.com</t>
@@ -127,19 +132,19 @@
     <t>移动端ui组件</t>
   </si>
   <si>
-    <t>mint ui</t>
+    <t xml:space="preserve">mint ui</t>
   </si>
   <si>
     <t>http://mint-ui.github.io</t>
   </si>
   <si>
-    <t>vant ui(常用)</t>
+    <t xml:space="preserve">vant ui(常用)</t>
   </si>
   <si>
     <t>https://vant-contrib.gitee.io/vant/#/zh-CN/</t>
   </si>
   <si>
-    <t>Ant Design（pc）</t>
+    <t xml:space="preserve">Ant Design（pc）</t>
   </si>
   <si>
     <t>https://ant.design/</t>
@@ -148,7 +153,7 @@
     <t>https://www.antdv.com/</t>
   </si>
   <si>
-    <t>muse ui</t>
+    <t xml:space="preserve">muse ui</t>
   </si>
   <si>
     <t>http://www.muse-ui.org</t>
@@ -160,7 +165,7 @@
     <t>http://www.easybui.com/docs/?id=controls</t>
   </si>
   <si>
-    <t>yd ui</t>
+    <t xml:space="preserve">yd ui</t>
   </si>
   <si>
     <t>http://www.ydui.org</t>
@@ -169,7 +174,7 @@
     <t>无框架ui</t>
   </si>
   <si>
-    <t>lay ui</t>
+    <t xml:space="preserve">lay ui</t>
   </si>
   <si>
     <t>http://www.layui.com</t>
@@ -178,7 +183,7 @@
     <t>图标</t>
   </si>
   <si>
-    <t>使用搜索:vue font-awesome图标</t>
+    <t xml:space="preserve">使用搜索:vue font-awesome图标</t>
   </si>
   <si>
     <t>https://fontawesome.dashgame.com/</t>
@@ -226,7 +231,7 @@
     <t>http://tool.oschina.net/regex/#</t>
   </si>
   <si>
-    <t>CSS 颜色十六进制值</t>
+    <t xml:space="preserve">CSS 颜色十六进制值</t>
   </si>
   <si>
     <t>https://www.runoob.com/cssref/css-colorsfull.html</t>
@@ -256,6 +261,9 @@
     <t>https://www.zhihu.com/</t>
   </si>
   <si>
+    <t>ABC******</t>
+  </si>
+  <si>
     <t>慕课网</t>
   </si>
   <si>
@@ -280,7 +288,7 @@
     <t>http://news.shimo.3.biz/</t>
   </si>
   <si>
-    <t>ui设计 墨刀</t>
+    <t xml:space="preserve">ui设计 墨刀</t>
   </si>
   <si>
     <t>https://free.modao.cc</t>
@@ -301,12 +309,12 @@
     <t>https://yunzhong.worktile.com/</t>
   </si>
   <si>
-    <t>翻墙软件bywave
+    <t xml:space="preserve">翻墙软件bywave
 搜索：bywave官方下载
 手机bywave软件进入官网，客服里有下载链接</t>
   </si>
   <si>
-    <t>https://bywave.art           https://bywave.art/download
+    <t xml:space="preserve">https://bywave.art           https://bywave.art/download
 https://console.bywa.art/download</t>
   </si>
   <si>
@@ -316,7 +324,7 @@
     <t>ABC123456</t>
   </si>
   <si>
-    <t>telegram下载
+    <t xml:space="preserve">telegram下载
 搜索：telegeram中文版官网下载</t>
   </si>
   <si>
@@ -329,6 +337,9 @@
     <t>https://lanhuapp.com</t>
   </si>
   <si>
+    <t>2693281934@qq.com</t>
+  </si>
+  <si>
     <t>lu123456</t>
   </si>
   <si>
@@ -344,7 +355,7 @@
     <t>https://uniapp.dcloud.io/</t>
   </si>
   <si>
-    <t>桌面应用程序的框架
+    <t xml:space="preserve">桌面应用程序的框架
 跨平台应用</t>
   </si>
   <si>
@@ -375,7 +386,7 @@
     <t>https://developers.weixin.qq.com/miniprogram/dev/extended/weui/</t>
   </si>
   <si>
-    <t>Vant Weapp</t>
+    <t xml:space="preserve">Vant Weapp</t>
   </si>
   <si>
     <t>https://vant-contrib.gitee.io/vant-weapp/#/intro</t>
@@ -390,7 +401,7 @@
     <t>http://mpvue.com</t>
   </si>
   <si>
-    <t>iView Weapp</t>
+    <t xml:space="preserve">iView Weapp</t>
   </si>
   <si>
     <t>https://weapp.iviewui.com/</t>
@@ -411,13 +422,16 @@
     <t>https://umijs.org/zh-CN/docs</t>
   </si>
   <si>
+    <t>ui组件</t>
+  </si>
+  <si>
     <t>Ant-design</t>
   </si>
   <si>
     <t>https://ant-design.gitee.io</t>
   </si>
   <si>
-    <t>react cli</t>
+    <t xml:space="preserve">react cli</t>
   </si>
   <si>
     <t>https://www.jianshu.com/p/d7b0f6a10f33</t>
@@ -441,7 +455,7 @@
     <t>https://pan.baidu.com/</t>
   </si>
   <si>
-    <t>ABC******
+    <t xml:space="preserve">ABC******
 Aa1****6</t>
   </si>
   <si>
@@ -457,7 +471,7 @@
     <t>办公文件</t>
   </si>
   <si>
-    <t>WPS Office</t>
+    <t xml:space="preserve">WPS Office</t>
   </si>
   <si>
     <t>实用的工作文档</t>
@@ -469,12 +483,18 @@
     <t>https://docs.qq.com</t>
   </si>
   <si>
+    <t>uniapp</t>
+  </si>
+  <si>
     <t>HbuilderX</t>
   </si>
   <si>
     <t>https://uniapp.dcloud.io/quickstart-hx</t>
   </si>
   <si>
+    <t>2693281934@qq.com</t>
+  </si>
+  <si>
     <t>sun123456</t>
   </si>
   <si>
@@ -589,7 +609,10 @@
     <t>lu134375</t>
   </si>
   <si>
-    <t>Google meet视频会议</t>
+    <t>1456300078@qq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google meet视频会议</t>
   </si>
   <si>
     <t>https://meet.google.com/odr-dnwz-ywu</t>
@@ -604,13 +627,16 @@
     <t>rafael66</t>
   </si>
   <si>
+    <t>2693281934@qq.com</t>
+  </si>
+  <si>
     <t>码云</t>
   </si>
   <si>
     <t>https://gitee.com/</t>
   </si>
   <si>
-    <t>全国12315平台
+    <t xml:space="preserve">全国12315平台
 消费者协会</t>
   </si>
   <si>
@@ -620,14 +646,17 @@
     <t>rafael_lu</t>
   </si>
   <si>
-    <t>杭州互联网金融法院
+    <t>ABC123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州互联网金融法院
 网案件的试点法院</t>
   </si>
   <si>
     <t>http://hztl.zjcourt.cn/</t>
   </si>
   <si>
-    <t>服务器ip
+    <t xml:space="preserve">服务器ip
 电脑ip：打开终端 》 ipconfig</t>
   </si>
   <si>
@@ -643,6 +672,12 @@
     <t>BJZLTF123456.</t>
   </si>
   <si>
+    <t>石墨文档</t>
+  </si>
+  <si>
+    <t>https://shimo.im/</t>
+  </si>
+  <si>
     <t>Marlon123.</t>
   </si>
   <si>
@@ -652,7 +687,25 @@
     <t>https://www.yuque.com/</t>
   </si>
   <si>
+    <t>ABC123456</t>
+  </si>
+  <si>
+    <t>ChatGpt中文版</t>
+  </si>
+  <si>
+    <t>https://chat.ktoai.com/#/</t>
+  </si>
+  <si>
+    <t>ChatGpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude AI人工智能</t>
+  </si>
+  <si>
     <t>标题</t>
+  </si>
+  <si>
+    <t>网址</t>
   </si>
   <si>
     <t>访问不了github</t>
@@ -666,17 +719,23 @@
   <si>
     <r>
       <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
+        <rFont val="SimSun"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
         <color rgb="000000"/>
+        <sz val="11"/>
       </rPr>
       <t>悟空C</t>
     </r>
     <r>
       <rPr>
-        <rFont val="宋体"/>
-        <sz val="11.0"/>
+        <rFont val="SimSun"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
         <color rgb="000000"/>
+        <sz val="11"/>
       </rPr>
       <t>RM</t>
     </r>
@@ -694,7 +753,7 @@
     <t>https://blog.csdn.net/a911711054/article/details/73478090</t>
   </si>
   <si>
-    <t>Git 远程仓库</t>
+    <t xml:space="preserve">Git 远程仓库</t>
   </si>
   <si>
     <t>http://www.shouce.ren/api/view/a/7492</t>
@@ -749,55 +808,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
-      <sz val="12.0"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <strike val="false"/>
+      <name val="SimSun"/>
       <color rgb="000000"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="SimSun"/>
+      <color rgb="0066cc"/>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="SimSun"/>
+      <color rgb="0000ff"/>
+      <sz val="9"/>
+      <u val="single"/>
     </font>
     <font>
       <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <strike val="false"/>
-      <color indexed="30"/>
+      <color rgb="000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
-      <sz val="11.0"/>
+      <color rgb="000000"/>
+      <sz val="11"/>
       <u val="single"/>
-      <strike val="false"/>
-      <color indexed="30"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <strike val="false"/>
-      <color rgb="0000FF"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <strike val="false"/>
-      <color indexed="30"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -805,111 +858,71 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+  <cellXfs count="15">
+    <xf fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="1" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="false"/>
+    <xf fontId="1" applyFont="true">
+      <alignment horizontal="left" vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
+    <xf fontId="1" applyFont="true">
+      <alignment vertical="center" textRotation="0" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+    <xf fontId="2" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+    <xf fontId="3" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="false"/>
+    <xf fontId="2" applyFont="true">
+      <alignment vertical="center" textRotation="0" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+    <xf fontId="3" applyFont="true">
+      <alignment horizontal="left" vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
+    <xf fontId="1" fillId="2" applyFont="true" applyFill="true">
+      <alignment vertical="center" textRotation="0" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="false"/>
+    <xf fontId="1" fillId="2" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+    <xf fontId="1" fillId="2" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
+    <xf fontId="1" fillId="2" applyFont="true" applyFill="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" horizontal="center" vertical="center" wrapText="true"/>
+    <xf fontId="1" fillId="2" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="false"/>
+    <xf fontId="4" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment textRotation="0" horizontal="left" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
-      <alignment textRotation="0" vertical="center" wrapText="false"/>
+    <xf fontId="5" applyFont="true">
+      <alignment vertical="center" textRotation="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="20.333333333333332" customWidth="true"/>
-    <col min="2" max="2" width="30.5" customWidth="true"/>
-    <col min="3" max="3" width="75.33333333333333" customWidth="true"/>
-    <col min="4" max="4" width="25.5" customWidth="true"/>
-    <col min="5" max="5" width="20.5" customWidth="true"/>
-    <col min="6" max="6" width="30.5" customWidth="true"/>
-    <col min="7" max="7" width="8.833333333333334" customWidth="true"/>
-    <col min="8" max="8" width="8.833333333333334" customWidth="true"/>
-    <col min="9" max="9" width="8.833333333333334" customWidth="true"/>
-    <col min="10" max="10" width="8.833333333333334" customWidth="true"/>
-    <col min="11" max="11" width="8.833333333333334" customWidth="true"/>
-    <col min="12" max="12" width="8.833333333333334" customWidth="true"/>
-    <col min="13" max="13" width="8.833333333333334" customWidth="true"/>
-    <col min="14" max="14" width="8.833333333333334" customWidth="true"/>
-    <col min="15" max="15" width="8.833333333333334" customWidth="true"/>
-    <col min="16" max="16" width="8.833333333333334" customWidth="true"/>
-    <col min="17" max="17" width="8.833333333333334" customWidth="true"/>
-    <col min="18" max="18" width="8.833333333333334" customWidth="true"/>
+    <col min="1" max="1" width="19.425001" customWidth="true"/>
+    <col min="2" max="2" width="29.608332" customWidth="true"/>
+    <col min="3" max="3" width="74.458336" customWidth="true"/>
+    <col min="4" max="4" width="24.625" customWidth="true"/>
+    <col min="5" max="5" width="19.641666" customWidth="true"/>
+    <col min="6" max="6" width="29.608332" customWidth="true"/>
+    <col min="7" max="18" width="7.941667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1073,7 +1086,7 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
@@ -1122,8 +1135,8 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="n">
-        <v>1.7817836856E10</v>
+      <c r="D9" s="2" t="n">
+        <v>17817836856.0</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
@@ -1197,7 +1210,7 @@
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2"/>
@@ -1223,7 +1236,7 @@
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2"/>
@@ -1293,7 +1306,7 @@
     <row r="16">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="2"/>
@@ -1413,7 +1426,7 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1507,7 +1520,7 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1531,7 +1544,7 @@
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="2"/>
@@ -1671,7 +1684,7 @@
     <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1768,11 +1781,11 @@
       <c r="C36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="6" t="n">
-        <v>1.7817836856E10</v>
+      <c r="D36" s="2" t="n">
+        <v>17817836856.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1791,10 +1804,10 @@
     <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
@@ -1815,10 +1828,10 @@
     <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
@@ -1839,10 +1852,10 @@
     <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
@@ -1863,10 +1876,10 @@
     <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
@@ -1887,10 +1900,10 @@
     <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
@@ -1912,7 +1925,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1933,10 +1946,10 @@
     <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
@@ -1957,10 +1970,10 @@
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
@@ -1981,16 +1994,16 @@
     <row r="45">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>92</v>
       </c>
+      <c r="D45" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2009,12 +2022,12 @@
     <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2033,16 +2046,16 @@
     <row r="47">
       <c r="A47" s="3"/>
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2060,11 +2073,11 @@
     </row>
     <row r="48">
       <c r="A48" s="3"/>
-      <c r="B48" s="10" t="s">
-        <v>99</v>
+      <c r="B48" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
@@ -2085,10 +2098,10 @@
     <row r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
@@ -2109,10 +2122,10 @@
     <row r="50">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="1"/>
@@ -2131,41 +2144,41 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -2182,17 +2195,17 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2209,10 +2222,10 @@
     <row r="54">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="1"/>
@@ -2234,7 +2247,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="1"/>
@@ -2255,10 +2268,10 @@
     <row r="56">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="1"/>
@@ -2279,10 +2292,10 @@
     <row r="57">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="1"/>
@@ -2303,7 +2316,7 @@
     <row r="58">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="7"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2321,34 +2334,34 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59">
-      <c r="A59" s="14"/>
-      <c r="B59" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="1"/>
@@ -2369,10 +2382,10 @@
     <row r="61">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="1"/>
@@ -2392,13 +2405,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="1"/>
@@ -2419,10 +2432,10 @@
     <row r="63">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="1"/>
@@ -2443,10 +2456,10 @@
     <row r="64">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="1"/>
@@ -2467,7 +2480,7 @@
     <row r="65">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="7"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2505,42 +2518,42 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="6" t="n">
-        <v>1.7817836856E10</v>
+        <v>137</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>17817836856.0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2558,13 +2571,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="1"/>
@@ -2584,10 +2597,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -2608,13 +2621,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="1"/>
@@ -2634,19 +2647,19 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>92</v>
+        <v>149</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2683,34 +2696,34 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="1"/>
@@ -2731,10 +2744,10 @@
     <row r="76">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="1"/>
@@ -2755,10 +2768,10 @@
     <row r="77">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="1"/>
@@ -2779,10 +2792,10 @@
     <row r="78">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="1"/>
@@ -2803,10 +2816,10 @@
     <row r="79">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="1"/>
@@ -2827,10 +2840,10 @@
     <row r="80">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="1"/>
@@ -2851,10 +2864,10 @@
     <row r="81">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
@@ -2893,34 +2906,34 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83">
-      <c r="A83" s="14"/>
-      <c r="B83" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
@@ -2941,10 +2954,10 @@
     <row r="85">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
@@ -2965,10 +2978,10 @@
     <row r="86">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
@@ -2989,10 +3002,10 @@
     <row r="87">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
@@ -3013,10 +3026,10 @@
     <row r="88">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
@@ -3037,10 +3050,10 @@
     <row r="89">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
@@ -3061,10 +3074,10 @@
     <row r="90">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
@@ -3085,10 +3098,10 @@
     <row r="91">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
@@ -3109,10 +3122,10 @@
     <row r="92">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
@@ -3153,17 +3166,17 @@
     <row r="94">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="9" t="s">
-        <v>182</v>
+      <c r="D94" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>109</v>
+        <v>188</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -3181,14 +3194,14 @@
     <row r="95">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D95" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -3205,19 +3218,19 @@
     <row r="96">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>1.2345678E7</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>92</v>
+        <v>193</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>12345678.0</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -3235,10 +3248,10 @@
     <row r="97">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
@@ -3259,16 +3272,16 @@
     <row r="98">
       <c r="A98" s="1"/>
       <c r="B98" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3287,10 +3300,10 @@
     <row r="99">
       <c r="A99" s="1"/>
       <c r="B99" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
@@ -3311,10 +3324,10 @@
     <row r="100">
       <c r="A100" s="1"/>
       <c r="B100" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
@@ -3334,17 +3347,17 @@
     </row>
     <row r="101">
       <c r="A101" s="1"/>
-      <c r="B101" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="18" t="n">
-        <v>1.8816784024E10</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>200</v>
+      <c r="B101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>18816784024.0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -3362,17 +3375,17 @@
     </row>
     <row r="102">
       <c r="A102" s="1"/>
-      <c r="B102" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="18" t="n">
-        <v>1.8816784024E10</v>
-      </c>
-      <c r="E102" s="19" t="s">
-        <v>201</v>
+      <c r="B102" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>18816784024.0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3390,17 +3403,17 @@
     </row>
     <row r="103">
       <c r="A103" s="1"/>
-      <c r="B103" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="18" t="n">
-        <v>1.7817836856E10</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>93</v>
+      <c r="B103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>17817836856.0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -3418,8 +3431,12 @@
     </row>
     <row r="104">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>216</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3438,8 +3455,12 @@
     </row>
     <row r="105">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -5357,7 +5378,7 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="15">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A19"/>
@@ -5375,132 +5396,117 @@
     <mergeCell ref="B83:C83"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink location="/zh-CN/" ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C22" r:id="rId19"/>
-    <hyperlink ref="C23" r:id="rId20"/>
-    <hyperlink ref="C24" r:id="rId21"/>
-    <hyperlink ref="C26" r:id="rId22"/>
-    <hyperlink ref="C28" r:id="rId23"/>
-    <hyperlink ref="C29" r:id="rId24"/>
-    <hyperlink ref="C30" r:id="rId25"/>
-    <hyperlink ref="C31" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C35" r:id="rId28"/>
-    <hyperlink ref="C36" r:id="rId29"/>
-    <hyperlink ref="C37" r:id="rId30"/>
-    <hyperlink ref="C38" r:id="rId31"/>
-    <hyperlink ref="C39" r:id="rId32"/>
-    <hyperlink ref="C40" r:id="rId33"/>
-    <hyperlink ref="C41" r:id="rId34"/>
-    <hyperlink location="screen=s363315759D1526636897639" ref="C42" r:id="rId35"/>
-    <hyperlink ref="C43" r:id="rId36"/>
-    <hyperlink ref="C44" r:id="rId37"/>
-    <hyperlink ref="C45" r:id="rId38"/>
-    <hyperlink ref="C46" r:id="rId39"/>
-    <hyperlink ref="C47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="C48" r:id="rId42"/>
-    <hyperlink ref="C49" r:id="rId43"/>
-    <hyperlink ref="C50" r:id="rId44"/>
-    <hyperlink ref="C52" r:id="rId45"/>
-    <hyperlink ref="C53" r:id="rId46"/>
-    <hyperlink ref="C54" r:id="rId47"/>
-    <hyperlink ref="C55" r:id="rId48"/>
-    <hyperlink ref="C56" r:id="rId49"/>
-    <hyperlink ref="C57" r:id="rId50"/>
-    <hyperlink ref="C60" r:id="rId51"/>
-    <hyperlink ref="C61" r:id="rId52"/>
-    <hyperlink ref="C62" r:id="rId53"/>
-    <hyperlink ref="C63" r:id="rId54"/>
-    <hyperlink ref="C64" r:id="rId55"/>
-    <hyperlink ref="C68" r:id="rId56"/>
-    <hyperlink ref="C69" r:id="rId57"/>
-    <hyperlink ref="C71" r:id="rId58"/>
-    <hyperlink ref="C72" r:id="rId59"/>
-    <hyperlink ref="C75" r:id="rId60"/>
-    <hyperlink ref="C76" r:id="rId61"/>
-    <hyperlink ref="C77" r:id="rId62"/>
-    <hyperlink ref="C78" r:id="rId63"/>
-    <hyperlink ref="C79" r:id="rId64"/>
-    <hyperlink ref="C80" r:id="rId65"/>
-    <hyperlink ref="C81" r:id="rId66"/>
-    <hyperlink ref="C84" r:id="rId67"/>
-    <hyperlink ref="C85" r:id="rId68"/>
-    <hyperlink ref="C86" r:id="rId69"/>
-    <hyperlink ref="C87" r:id="rId70"/>
-    <hyperlink ref="C88" r:id="rId71"/>
-    <hyperlink ref="C89" r:id="rId72"/>
-    <hyperlink ref="C90" r:id="rId73"/>
-    <hyperlink ref="C91" r:id="rId74"/>
-    <hyperlink ref="C92" r:id="rId75"/>
-    <hyperlink ref="C95" r:id="rId76"/>
-    <hyperlink ref="C96" r:id="rId77"/>
-    <hyperlink ref="C97" r:id="rId78"/>
-    <hyperlink ref="C98" r:id="rId79"/>
-    <hyperlink ref="C99" r:id="rId80"/>
-    <hyperlink ref="C100" r:id="rId81"/>
-    <hyperlink ref="C101" r:id="rId82"/>
-    <hyperlink ref="C102" r:id="rId83"/>
-    <hyperlink ref="C103" r:id="rId84"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com/"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://fanyi.baidu.com/"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://github.com/"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://demo.zentao.net/my/"/>
+    <hyperlink ref="C6" r:id="rId5" display="http://www.gongzuozhoubao.com/"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://mail.qq.com/"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://www.chsi.com.cn/"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://element.eleme.cn"/>
+    <hyperlink ref="C11" r:id="rId9" display="https://xuliangzhan_admin.gitee.io/vxe-table"/>
+    <hyperlink ref="C12" r:id="rId10" display="https://www.iviewui.com"/>
+    <hyperlink ref="C13" r:id="rId11" display="http://mint-ui.github.io"/>
+    <hyperlink ref="C14" r:id="rId12" display="https://vant-contrib.gitee.io/vant/#/zh-CN/"/>
+    <hyperlink ref="C15" r:id="rId13" display="https://ant.design/"/>
+    <hyperlink ref="C16" r:id="rId14" display="https://www.antdv.com/"/>
+    <hyperlink ref="C17" r:id="rId15" display="http://www.muse-ui.org"/>
+    <hyperlink ref="C18" r:id="rId16" display="http://www.easybui.com/docs/?id=controls"/>
+    <hyperlink ref="C19" r:id="rId17" display="http://www.ydui.org"/>
+    <hyperlink ref="C20" r:id="rId18" display="http://www.layui.com"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://fontawesome.dashgame.com/"/>
+    <hyperlink ref="C23" r:id="rId20" display="http://www.iconfont.cn/"/>
+    <hyperlink ref="C24" r:id="rId21" display="http://www.bootcss.com/"/>
+    <hyperlink ref="C26" r:id="rId22" display="https://www.lodashjs.com/"/>
+    <hyperlink ref="C28" r:id="rId23" display="http://www.json.cn/"/>
+    <hyperlink ref="C29" r:id="rId24" display="https://www.bejson.com/"/>
+    <hyperlink ref="C30" r:id="rId25" display="http://tool.oschina.net/regex/#"/>
+    <hyperlink ref="C31" r:id="rId26" display="https://www.runoob.com/cssref/css-colorsfull.html"/>
+    <hyperlink ref="C33" r:id="rId27" display="http://www.swiper.com.cn/api/"/>
+    <hyperlink ref="C35" r:id="rId28" display="https://www.w3cschool.cn/"/>
+    <hyperlink ref="C36" r:id="rId29" display="https://www.zhihu.com/"/>
+    <hyperlink ref="C37" r:id="rId30" display="https://www.imooc.com/"/>
+    <hyperlink ref="C38" r:id="rId31" display="http://sc.chinaz.com/"/>
+    <hyperlink ref="C39" r:id="rId32" display="http://www.faisco.com/"/>
+    <hyperlink ref="C40" r:id="rId33" display="http://news.shimo.3.biz/"/>
+    <hyperlink ref="C41" r:id="rId34" display="https://free.modao.cc"/>
+    <hyperlink ref="C42" r:id="rId35" display="https://free.modao.cc/app/YC5ilx44KnSf9OrfqvPlZxz7Q4cXKFH#screen=s363315759D1526636897639"/>
+    <hyperlink ref="C43" r:id="rId36" display="http://www.demodashi.com"/>
+    <hyperlink ref="C44" r:id="rId37" display="https://yunzhong.worktile.com/"/>
+    <hyperlink ref="C45" r:id="rId38" display="https://bywave.art           https://bywave.art/download https://console.bywa.art/download"/>
+    <hyperlink ref="C46" r:id="rId39" display="https://telegram.org/"/>
+    <hyperlink ref="C47" r:id="rId40" display="https://lanhuapp.com"/>
+    <hyperlink ref="B48" r:id="rId41" display="gitlab"/>
+    <hyperlink ref="C48" r:id="rId42" display="https://gitlab.com"/>
+    <hyperlink ref="C49" r:id="rId43" display="https://uniapp.dcloud.io/"/>
+    <hyperlink ref="C50" r:id="rId44" display="https://www.electronjs.org/zh/docs/latest/"/>
+    <hyperlink ref="C52" r:id="rId45" display="https://mp.weixin.qq.com/"/>
+    <hyperlink ref="C53" r:id="rId46" display="https://developers.weixin.qq.com/miniprogram/dev/extended/weui/"/>
+    <hyperlink ref="C54" r:id="rId47" display="https://vant-contrib.gitee.io/vant-weapp/#/intro"/>
+    <hyperlink ref="C55" r:id="rId48" display="https://youzan.github.io/vant-weapp/#/col"/>
+    <hyperlink ref="C56" r:id="rId49" display="http://mpvue.com"/>
+    <hyperlink ref="C57" r:id="rId50" display="https://weapp.iviewui.com/"/>
+    <hyperlink ref="C60" r:id="rId51" display="https://dvajs.com/"/>
+    <hyperlink ref="C61" r:id="rId52" display="https://umijs.org/zh-CN/docs"/>
+    <hyperlink ref="C62" r:id="rId53" display="https://ant-design.gitee.io"/>
+    <hyperlink ref="C63" r:id="rId54" display="https://www.jianshu.com/p/d7b0f6a10f33"/>
+    <hyperlink ref="C64" r:id="rId55" display="https://www.jianshu.com/p/b331d0e4b398"/>
+    <hyperlink ref="C68" r:id="rId56" display="https://pan.baidu.com/"/>
+    <hyperlink ref="C69" r:id="rId57" display="https://www.huorong.cn/"/>
+    <hyperlink ref="C71" r:id="rId58" display="https://docs.qq.com"/>
+    <hyperlink ref="C72" r:id="rId59" display="https://uniapp.dcloud.io/quickstart-hx"/>
+    <hyperlink ref="C75" r:id="rId60" display="https://echarts.apache.org/zh/option.html#title"/>
+    <hyperlink ref="C76" r:id="rId61" display="https://www.w3cschool.cn/echarts_tutorial/echarts_tutorial-mec528xa.html"/>
+    <hyperlink ref="C77" r:id="rId62" display="https://elemefe.github.io/vue-amap/#/zh-cn/examples/base/amap"/>
+    <hyperlink ref="C78" r:id="rId63" display="https://dafrok.github.io/vue-baidu-map/#/zh/index"/>
+    <hyperlink ref="C79" r:id="rId64" display="http://lbsyun.baidu.com"/>
+    <hyperlink ref="C80" r:id="rId65" display="https://console.amap.com/dev/index"/>
+    <hyperlink ref="C81" r:id="rId66" display="http://lbsyun.baidu.com/apiconsole/key#/home"/>
+    <hyperlink ref="C84" r:id="rId67" display="https://www.taobao.com/"/>
+    <hyperlink ref="C85" r:id="rId68" display="https://www.jd.com/"/>
+    <hyperlink ref="C86" r:id="rId69" display="http://news.17173.com/"/>
+    <hyperlink ref="C87" r:id="rId70" display="http://www.shuowan.com/"/>
+    <hyperlink ref="C88" r:id="rId71" display="http://mini.eastday.com"/>
+    <hyperlink ref="C89" r:id="rId72" display="https://www.cnblogs.com/"/>
+    <hyperlink ref="C90" r:id="rId73" display="https://shimo.im/"/>
+    <hyperlink ref="C91" r:id="rId74" display="http://bai.com/"/>
+    <hyperlink ref="C92" r:id="rId75" display="https://www.ipip.net/"/>
+    <hyperlink ref="C95" r:id="rId76" display="https://meet.google.com/odr-dnwz-ywu"/>
+    <hyperlink ref="C96" r:id="rId77" display="https://www.soft-down.net/detail/453901/4539009995.shtml?type=jingzhun"/>
+    <hyperlink ref="C97" r:id="rId78" display="https://gitee.com/"/>
+    <hyperlink ref="C98" r:id="rId79" display="https://www.12315.cn/"/>
+    <hyperlink ref="C99" r:id="rId80" display="http://hztl.zjcourt.cn/"/>
+    <hyperlink ref="C100" r:id="rId81" display="https://ip.cn/"/>
+    <hyperlink ref="C101" r:id="rId82" display="https://blog.csdn.net/"/>
+    <hyperlink ref="C102" r:id="rId83" display="https://shimo.im/"/>
+    <hyperlink ref="C103" r:id="rId84" display="https://www.yuque.com/"/>
+    <hyperlink ref="C104" r:id="rId85" display="https://chat.ktoai.com/#/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <extLst/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="false" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="false" zeroHeight="false" thickTop="false" thickBottom="false"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="true"/>
-    <col min="2" max="2" width="80.5" customWidth="true"/>
-    <col min="3" max="3" width="30.333333333333332" customWidth="true"/>
-    <col min="4" max="4" width="8.666666666666666" customWidth="true"/>
-    <col min="5" max="5" width="8.666666666666666" customWidth="true"/>
-    <col min="6" max="6" width="8.666666666666666" customWidth="true"/>
-    <col min="7" max="7" width="8.666666666666666" customWidth="true"/>
-    <col min="8" max="8" width="8.666666666666666" customWidth="true"/>
-    <col min="9" max="9" width="8.666666666666666" customWidth="true"/>
-    <col min="10" max="10" width="8.666666666666666" customWidth="true"/>
-    <col min="11" max="11" width="8.666666666666666" customWidth="true"/>
-    <col min="12" max="12" width="8.666666666666666" customWidth="true"/>
-    <col min="13" max="13" width="8.666666666666666" customWidth="true"/>
-    <col min="14" max="14" width="8.666666666666666" customWidth="true"/>
-    <col min="15" max="15" width="8.666666666666666" customWidth="true"/>
-    <col min="16" max="16" width="8.666666666666666" customWidth="true"/>
-    <col min="17" max="17" width="8.666666666666666" customWidth="true"/>
-    <col min="18" max="18" width="8.666666666666666" customWidth="true"/>
+    <col min="1" max="1" width="49.649998" customWidth="true"/>
+    <col min="2" max="2" width="79.65833" customWidth="true"/>
+    <col min="3" max="3" width="29.5" customWidth="true"/>
+    <col min="4" max="18" width="7.8333335" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5521,13 +5527,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5547,12 +5553,12 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5572,9 +5578,9 @@
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5613,10 +5619,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5637,10 +5643,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5661,10 +5667,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5685,10 +5691,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5709,10 +5715,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5733,10 +5739,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5757,10 +5763,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5781,10 +5787,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5806,7 +5812,7 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5827,10 +5833,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9550,28 +9556,27 @@
       <c r="R200" s="1"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://jingyan.baidu.com/article/11c17a2cfb88d6f446e39d82.html"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.ipaddress.com/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://gitee.com/wukongcrm/W72crm_web"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://gitee.com/wukongcrm/crm_pro"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://blog.csdn.net/a911711054/article/details/73478090"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.shouce.ren/api/view/a/7492"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://jingyan.baidu.com/article/25648fc19d2c809191fd001f.html"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.cnblogs.com/what-lee/p/8686512.html"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://www.cnblogs.com/yjf512/p/3796229.html"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://f.youdao.com/?vendor=deskdict&amp;client=deskdict_deepin"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://www.jb51.net/article/123626.htm"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://www.jb51.net/article/129932.htm"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://www.cnblogs.com/blackin/archive/2017/12/06/7993868.html"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://www.qdfuns.com/notes/25100/82982d78c511e1d3e0b1940bff832b81.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <extLst/>
 </worksheet>
 </file>